--- a/New Microsoft Excel Worksheet.xlsx
+++ b/New Microsoft Excel Worksheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>SL No</t>
   </si>
@@ -70,6 +70,21 @@
   </si>
   <si>
     <t>Shayla10</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Grading Point</t>
+  </si>
+  <si>
+    <t>Highest</t>
+  </si>
+  <si>
+    <t>Lowest</t>
   </si>
 </sst>
 </file>
@@ -387,15 +402,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="10" max="10" width="11.125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -417,8 +435,17 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -440,8 +467,16 @@
       <c r="G2">
         <v>85</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2">
+        <f>SUM(D2:G2)</f>
+        <v>363</v>
+      </c>
+      <c r="I2">
+        <f>AVERAGE(D2:G2)</f>
+        <v>90.75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -463,8 +498,16 @@
       <c r="G3">
         <v>86</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3">
+        <f t="shared" ref="H3:H11" si="0">SUM(D3:G3)</f>
+        <v>343</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I11" si="1">AVERAGE(D3:G3)</f>
+        <v>85.75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -486,8 +529,16 @@
       <c r="G4">
         <v>90</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>325</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="1"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -509,8 +560,16 @@
       <c r="G5">
         <v>76</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>298</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>74.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -532,8 +591,16 @@
       <c r="G6">
         <v>56</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>298</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>74.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -555,8 +622,16 @@
       <c r="G7">
         <v>68</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>257</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>64.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -578,8 +653,16 @@
       <c r="G8">
         <v>78</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>286</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>71.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -601,8 +684,16 @@
       <c r="G9">
         <v>89</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>310</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>77.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -624,8 +715,16 @@
       <c r="G10">
         <v>91</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>367</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>91.75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -646,6 +745,56 @@
       </c>
       <c r="G11">
         <v>90</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>332</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12">
+        <f>MAX(D2:D11)</f>
+        <v>100</v>
+      </c>
+      <c r="E12">
+        <f t="shared" ref="E12:G12" si="2">MAX(E2:E11)</f>
+        <v>100</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13">
+        <f>MIN(D2:D12)</f>
+        <v>49</v>
+      </c>
+      <c r="E13">
+        <f t="shared" ref="E13:G13" si="3">MIN(E2:E12)</f>
+        <v>45</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="3"/>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/New Microsoft Excel Worksheet.xlsx
+++ b/New Microsoft Excel Worksheet.xlsx
@@ -7,9 +7,13 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <pivotCaches>
+    <pivotCache cacheId="2" r:id="rId3"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
   <si>
     <t>SL No</t>
   </si>
@@ -86,6 +90,15 @@
   <si>
     <t>Lowest</t>
   </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Sum of BGS</t>
+  </si>
 </sst>
 </file>
 
@@ -120,8 +133,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -137,6 +155,2353 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[New Microsoft Excel Worksheet.xlsx]Sheet2!PivotTable1</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Shayla1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Shayla10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Shayla2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Shayla3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Shayla4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Shayla5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Shayla6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Shayla7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Shayla8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Shayla9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>91</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7FC6-4FC9-83B9-048F429FE3A5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1986523391"/>
+        <c:axId val="1986524639"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1986523391"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1986524639"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1986524639"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1986523391"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[New Microsoft Excel Worksheet.xlsx]Sheet2!PivotTable1</c:name>
+    <c:fmtId val="3"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:view3D>
+      <c:rotX val="30"/>
+      <c:rotY val="0"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Shayla1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Shayla10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Shayla2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Shayla3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Shayla4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Shayla5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Shayla6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Shayla7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Shayla8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Shayla9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>91</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E8B7-473D-BFA5-88292865C822}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="262">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>100012</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>404812</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Author" refreshedDate="43354.756473611109" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="10">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="C1:I11" sheet="Sheet1"/>
+  </cacheSource>
+  <cacheFields count="7">
+    <cacheField name="Name" numFmtId="0">
+      <sharedItems count="10">
+        <s v="Shayla1"/>
+        <s v="Shayla2"/>
+        <s v="Shayla3"/>
+        <s v="Shayla4"/>
+        <s v="Shayla5"/>
+        <s v="Shayla6"/>
+        <s v="Shayla7"/>
+        <s v="Shayla8"/>
+        <s v="Shayla9"/>
+        <s v="Shayla10"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Bangla" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="49" maxValue="100"/>
+    </cacheField>
+    <cacheField name="Math" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="45" maxValue="100"/>
+    </cacheField>
+    <cacheField name="Eng " numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="44" maxValue="100"/>
+    </cacheField>
+    <cacheField name="BGS" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="56" maxValue="91"/>
+    </cacheField>
+    <cacheField name="Total" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="257" maxValue="367"/>
+    </cacheField>
+    <cacheField name="Average" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="64.25" maxValue="91.75"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="10">
+  <r>
+    <x v="0"/>
+    <n v="98"/>
+    <n v="100"/>
+    <n v="80"/>
+    <n v="85"/>
+    <n v="363"/>
+    <n v="90.75"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="78"/>
+    <n v="89"/>
+    <n v="90"/>
+    <n v="86"/>
+    <n v="343"/>
+    <n v="85.75"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="81"/>
+    <n v="78"/>
+    <n v="76"/>
+    <n v="90"/>
+    <n v="325"/>
+    <n v="81.25"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="68"/>
+    <n v="76"/>
+    <n v="78"/>
+    <n v="76"/>
+    <n v="298"/>
+    <n v="74.5"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="88"/>
+    <n v="56"/>
+    <n v="98"/>
+    <n v="56"/>
+    <n v="298"/>
+    <n v="74.5"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="100"/>
+    <n v="45"/>
+    <n v="44"/>
+    <n v="68"/>
+    <n v="257"/>
+    <n v="64.25"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="49"/>
+    <n v="90"/>
+    <n v="69"/>
+    <n v="78"/>
+    <n v="286"/>
+    <n v="71.5"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="55"/>
+    <n v="76"/>
+    <n v="90"/>
+    <n v="89"/>
+    <n v="310"/>
+    <n v="77.5"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="99"/>
+    <n v="77"/>
+    <n v="100"/>
+    <n v="91"/>
+    <n v="367"/>
+    <n v="91.75"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="77"/>
+    <n v="85"/>
+    <n v="80"/>
+    <n v="90"/>
+    <n v="332"/>
+    <n v="83"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="A1:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="11">
+        <item x="0"/>
+        <item x="9"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="11">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of BGS" fld="4" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="3" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -402,15 +2767,132 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="1">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="1">
+        <v>809</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="10" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">

--- a/New Microsoft Excel Worksheet.xlsx
+++ b/New Microsoft Excel Worksheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -12,7 +12,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -240,6 +240,21 @@
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent1"/>
@@ -653,6 +668,196 @@
           <c:symbol val="none"/>
         </c:marker>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:view3D>
       <c:rotX val="30"/>
@@ -730,6 +935,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-569F-4042-AD56-1F746C8A80A4}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -750,6 +960,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-569F-4042-AD56-1F746C8A80A4}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -770,6 +985,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-569F-4042-AD56-1F746C8A80A4}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -790,6 +1010,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-569F-4042-AD56-1F746C8A80A4}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -810,6 +1035,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-569F-4042-AD56-1F746C8A80A4}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -830,6 +1060,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-569F-4042-AD56-1F746C8A80A4}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -852,6 +1087,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-569F-4042-AD56-1F746C8A80A4}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -874,6 +1114,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-569F-4042-AD56-1F746C8A80A4}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
@@ -896,6 +1141,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-569F-4042-AD56-1F746C8A80A4}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
@@ -918,6 +1168,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-569F-4042-AD56-1F746C8A80A4}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -2275,7 +2530,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Author" refreshedDate="43354.756473611109" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="10">
   <cacheSource type="worksheet">
-    <worksheetSource ref="C1:I11" sheet="Sheet1"/>
+    <worksheetSource ref="C1:I11" sheet="Sheet1" r:id="rId2"/>
   </cacheSource>
   <cacheFields count="7">
     <cacheField name="Name" numFmtId="0">
@@ -2415,7 +2670,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A1:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" showAll="0">
@@ -2484,12 +2739,141 @@
   <dataFields count="1">
     <dataField name="Sum of BGS" fld="4" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="1">
+  <chartFormats count="12">
     <chartFormat chart="3" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="9"/>
           </reference>
         </references>
       </pivotArea>
@@ -2769,7 +3153,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
@@ -2886,8 +3270,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2957,6 +3341,10 @@
         <f>AVERAGE(D2:G2)</f>
         <v>90.75</v>
       </c>
+      <c r="J2" t="str">
+        <f>IF(I2&gt;=100*80%-100%,"5",IF(I2&gt;=100*70%-79%,"4",IF(I2&gt;=100*69%-60%,"3.5",IF(I2&gt;=100*59%-50%,"3",IF(I2&gt;=100*49%-40%,"2","F")))))</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -2988,6 +3376,10 @@
         <f t="shared" ref="I3:I11" si="1">AVERAGE(D3:G3)</f>
         <v>85.75</v>
       </c>
+      <c r="J3" t="str">
+        <f t="shared" ref="J3:J11" si="2">IF(I3&gt;=100*80%-100%,"5",IF(I3&gt;=100*70%-79%,"4",IF(I3&gt;=100*69%-60%,"3.5",IF(I3&gt;=100*59%-50%,"3",IF(I3&gt;=100*49%-40%,"2","F")))))</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -3019,6 +3411,10 @@
         <f t="shared" si="1"/>
         <v>81.25</v>
       </c>
+      <c r="J4" t="str">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -3050,6 +3446,10 @@
         <f t="shared" si="1"/>
         <v>74.5</v>
       </c>
+      <c r="J5" t="str">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -3081,6 +3481,10 @@
         <f t="shared" si="1"/>
         <v>74.5</v>
       </c>
+      <c r="J6" t="str">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -3112,6 +3516,10 @@
         <f t="shared" si="1"/>
         <v>64.25</v>
       </c>
+      <c r="J7" t="str">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -3143,6 +3551,10 @@
         <f t="shared" si="1"/>
         <v>71.5</v>
       </c>
+      <c r="J8" t="str">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -3174,6 +3586,10 @@
         <f t="shared" si="1"/>
         <v>77.5</v>
       </c>
+      <c r="J9" t="str">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -3205,6 +3621,10 @@
         <f t="shared" si="1"/>
         <v>91.75</v>
       </c>
+      <c r="J10" t="str">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -3236,6 +3656,10 @@
         <f t="shared" si="1"/>
         <v>83</v>
       </c>
+      <c r="J11" t="str">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -3246,15 +3670,15 @@
         <v>100</v>
       </c>
       <c r="E12">
-        <f t="shared" ref="E12:G12" si="2">MAX(E2:E11)</f>
+        <f t="shared" ref="E12:G12" si="3">MAX(E2:E11)</f>
         <v>100</v>
       </c>
       <c r="F12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="G12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>91</v>
       </c>
     </row>
@@ -3267,15 +3691,15 @@
         <v>49</v>
       </c>
       <c r="E13">
-        <f t="shared" ref="E13:G13" si="3">MIN(E2:E12)</f>
+        <f t="shared" ref="E13:G13" si="4">MIN(E2:E12)</f>
         <v>45</v>
       </c>
       <c r="F13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>44</v>
       </c>
       <c r="G13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>56</v>
       </c>
     </row>

--- a/New Microsoft Excel Worksheet.xlsx
+++ b/New Microsoft Excel Worksheet.xlsx
@@ -133,12 +133,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -176,7 +179,6 @@
   </c:pivotSource>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -512,7 +514,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -614,7 +615,6 @@
   </c:pivotSource>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1277,7 +1277,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3271,7 +3270,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3341,7 +3340,7 @@
         <f>AVERAGE(D2:G2)</f>
         <v>90.75</v>
       </c>
-      <c r="J2" t="str">
+      <c r="J2" s="4" t="str">
         <f>IF(I2&gt;=100*80%-100%,"5",IF(I2&gt;=100*70%-79%,"4",IF(I2&gt;=100*69%-60%,"3.5",IF(I2&gt;=100*59%-50%,"3",IF(I2&gt;=100*49%-40%,"2","F")))))</f>
         <v>5</v>
       </c>
@@ -3376,7 +3375,7 @@
         <f t="shared" ref="I3:I11" si="1">AVERAGE(D3:G3)</f>
         <v>85.75</v>
       </c>
-      <c r="J3" t="str">
+      <c r="J3" s="4" t="str">
         <f t="shared" ref="J3:J11" si="2">IF(I3&gt;=100*80%-100%,"5",IF(I3&gt;=100*70%-79%,"4",IF(I3&gt;=100*69%-60%,"3.5",IF(I3&gt;=100*59%-50%,"3",IF(I3&gt;=100*49%-40%,"2","F")))))</f>
         <v>5</v>
       </c>
@@ -3411,7 +3410,7 @@
         <f t="shared" si="1"/>
         <v>81.25</v>
       </c>
-      <c r="J4" t="str">
+      <c r="J4" s="4" t="str">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
@@ -3446,7 +3445,7 @@
         <f t="shared" si="1"/>
         <v>74.5</v>
       </c>
-      <c r="J5" t="str">
+      <c r="J5" s="4" t="str">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
@@ -3481,7 +3480,7 @@
         <f t="shared" si="1"/>
         <v>74.5</v>
       </c>
-      <c r="J6" t="str">
+      <c r="J6" s="4" t="str">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
@@ -3516,7 +3515,7 @@
         <f t="shared" si="1"/>
         <v>64.25</v>
       </c>
-      <c r="J7" t="str">
+      <c r="J7" s="4" t="str">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
@@ -3551,7 +3550,7 @@
         <f t="shared" si="1"/>
         <v>71.5</v>
       </c>
-      <c r="J8" t="str">
+      <c r="J8" s="4" t="str">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
@@ -3586,7 +3585,7 @@
         <f t="shared" si="1"/>
         <v>77.5</v>
       </c>
-      <c r="J9" t="str">
+      <c r="J9" s="4" t="str">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
@@ -3621,7 +3620,7 @@
         <f t="shared" si="1"/>
         <v>91.75</v>
       </c>
-      <c r="J10" t="str">
+      <c r="J10" s="4" t="str">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
@@ -3656,7 +3655,7 @@
         <f t="shared" si="1"/>
         <v>83</v>
       </c>
-      <c r="J11" t="str">
+      <c r="J11" s="4" t="str">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>

--- a/New Microsoft Excel Worksheet.xlsx
+++ b/New Microsoft Excel Worksheet.xlsx
@@ -8,11 +8,13 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="6" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -23,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="26">
   <si>
     <t>SL No</t>
   </si>
@@ -98,6 +100,9 @@
   </si>
   <si>
     <t>Sum of BGS</t>
+  </si>
+  <si>
+    <t>(blank)</t>
   </si>
 </sst>
 </file>
@@ -1360,6 +1365,1333 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[New Microsoft Excel Worksheet.xlsx]Sheet3!PivotTable1</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$A$2:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Shayla1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Shayla10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Shayla2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Shayla3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Shayla4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Shayla5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Shayla6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Shayla7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Shayla8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Shayla9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>(blank)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$2:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>147</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-C1CD-49F4-8FDE-E92179100758}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1779004864"/>
+        <c:axId val="1779000288"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1779004864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1779000288"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1779000288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1779004864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[New Microsoft Excel Worksheet.xlsx]Sheet3!PivotTable1</c:name>
+    <c:fmtId val="3"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="10000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront"/>
+            <a:lightRig rig="threePt" dir="t"/>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="127000" h="127000"/>
+            <a:bevelB w="127000" h="127000"/>
+          </a:sp3d>
+        </c:spPr>
+        <c:marker>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout/>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="10000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront"/>
+            <a:lightRig rig="threePt" dir="t"/>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="127000" h="127000"/>
+            <a:bevelB w="127000" h="127000"/>
+          </a:sp3d>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="10000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront"/>
+            <a:lightRig rig="threePt" dir="t"/>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="127000" h="127000"/>
+            <a:bevelB w="127000" h="127000"/>
+          </a:sp3d>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="20000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="20000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="20000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="20000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="20000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="20000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="20000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="11"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="20000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="12"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="20000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="13"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="20000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="14"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="20000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="15"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="20000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="16"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="20000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="20000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$A$2:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Shayla1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Shayla10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Shayla2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Shayla3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Shayla4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Shayla5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Shayla6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Shayla7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Shayla8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Shayla9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>(blank)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$2:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>147</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-35F9-40D3-8781-AEA3342A965E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="1778997792"/>
+        <c:axId val="1778999872"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1778997792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1778999872"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1778999872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1778997792"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="l"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1440,6 +2772,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -2396,6 +3808,1029 @@
           <a:schemeClr val="phClr"/>
         </a:solidFill>
         <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="259">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="10000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="threePt" dir="t"/>
+      </a:scene3d>
+      <a:sp3d>
+        <a:bevelT w="127000" h="127000"/>
+        <a:bevelB w="127000" h="127000"/>
+      </a:sp3d>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -2527,6 +4962,71 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>633412</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>404812</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Author" refreshedDate="43354.756473611109" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="10">
   <cacheSource type="worksheet">
@@ -2564,6 +5064,90 @@
     </cacheField>
     <cacheField name="Average" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="64.25" maxValue="91.75"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Author" refreshedDate="43354.443061805556" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="12">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:J13" sheet="Sheet1"/>
+  </cacheSource>
+  <cacheFields count="10">
+    <cacheField name="SL No" numFmtId="0">
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="10"/>
+    </cacheField>
+    <cacheField name="Roll" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="2" maxValue="20"/>
+    </cacheField>
+    <cacheField name="Name" numFmtId="0">
+      <sharedItems containsBlank="1" count="11">
+        <s v="Shayla1"/>
+        <s v="Shayla2"/>
+        <s v="Shayla3"/>
+        <s v="Shayla4"/>
+        <s v="Shayla5"/>
+        <s v="Shayla6"/>
+        <s v="Shayla7"/>
+        <s v="Shayla8"/>
+        <s v="Shayla9"/>
+        <s v="Shayla10"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Bangla" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="49" maxValue="100"/>
+    </cacheField>
+    <cacheField name="Math" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="45" maxValue="100"/>
+    </cacheField>
+    <cacheField name="Eng " numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="44" maxValue="100"/>
+    </cacheField>
+    <cacheField name="BGS" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="56" maxValue="91"/>
+    </cacheField>
+    <cacheField name="Total" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="257" maxValue="367" count="10">
+        <n v="363"/>
+        <n v="343"/>
+        <n v="325"/>
+        <n v="298"/>
+        <n v="257"/>
+        <n v="286"/>
+        <n v="310"/>
+        <n v="367"/>
+        <n v="332"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Average" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="64.25" maxValue="91.75" count="10">
+        <n v="90.75"/>
+        <n v="85.75"/>
+        <n v="81.25"/>
+        <n v="74.5"/>
+        <n v="64.25"/>
+        <n v="71.5"/>
+        <n v="77.5"/>
+        <n v="91.75"/>
+        <n v="83"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Grading Point" numFmtId="0">
+      <sharedItems containsBlank="1" count="4">
+        <s v="5"/>
+        <s v="4"/>
+        <s v="3"/>
+        <m/>
+      </sharedItems>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -2665,6 +5249,155 @@
     <n v="90"/>
     <n v="332"/>
     <n v="83"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="12">
+  <r>
+    <n v="1"/>
+    <n v="2"/>
+    <x v="0"/>
+    <n v="98"/>
+    <n v="100"/>
+    <n v="80"/>
+    <n v="85"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="4"/>
+    <x v="1"/>
+    <n v="78"/>
+    <n v="89"/>
+    <n v="90"/>
+    <n v="86"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <n v="6"/>
+    <x v="2"/>
+    <n v="81"/>
+    <n v="78"/>
+    <n v="76"/>
+    <n v="90"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <n v="8"/>
+    <x v="3"/>
+    <n v="68"/>
+    <n v="76"/>
+    <n v="78"/>
+    <n v="76"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <n v="10"/>
+    <x v="4"/>
+    <n v="88"/>
+    <n v="56"/>
+    <n v="98"/>
+    <n v="56"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="12"/>
+    <x v="5"/>
+    <n v="100"/>
+    <n v="45"/>
+    <n v="44"/>
+    <n v="68"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="14"/>
+    <x v="6"/>
+    <n v="49"/>
+    <n v="90"/>
+    <n v="69"/>
+    <n v="78"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="16"/>
+    <x v="7"/>
+    <n v="55"/>
+    <n v="76"/>
+    <n v="90"/>
+    <n v="89"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="9"/>
+    <n v="18"/>
+    <x v="8"/>
+    <n v="99"/>
+    <n v="77"/>
+    <n v="100"/>
+    <n v="91"/>
+    <x v="7"/>
+    <x v="7"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="10"/>
+    <n v="20"/>
+    <x v="9"/>
+    <n v="77"/>
+    <n v="85"/>
+    <n v="80"/>
+    <n v="90"/>
+    <x v="8"/>
+    <x v="8"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Highest"/>
+    <m/>
+    <x v="10"/>
+    <n v="100"/>
+    <n v="100"/>
+    <n v="100"/>
+    <n v="91"/>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Lowest"/>
+    <m/>
+    <x v="10"/>
+    <n v="49"/>
+    <n v="45"/>
+    <n v="44"/>
+    <n v="56"/>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="3"/>
   </r>
 </pivotCacheRecords>
 </file>
@@ -2888,6 +5621,280 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="A1:B13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="10">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="12">
+        <item x="0"/>
+        <item x="9"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="10"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="11">
+        <item x="4"/>
+        <item x="5"/>
+        <item x="3"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="8"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="7"/>
+        <item x="9"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="11">
+        <item x="4"/>
+        <item x="5"/>
+        <item x="3"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="8"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="7"/>
+        <item x="9"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="12">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of BGS" fld="6" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="13">
+    <chartFormat chart="0" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="11" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="12" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="13" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="9"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="14" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="10"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="15" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="16" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3159,8 +6166,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.125" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3268,15 +6275,141 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5" customWidth="1"/>
+    <col min="2" max="2" width="9.75" customWidth="1"/>
+    <col min="3" max="3" width="7.875" customWidth="1"/>
+    <col min="4" max="11" width="6.875" customWidth="1"/>
+    <col min="12" max="12" width="6.375" customWidth="1"/>
+    <col min="13" max="13" width="9.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="1">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="1">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="1">
+        <v>956</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
